--- a/Output/Sensitivity_analysis/visualization_sensitivity.xlsx
+++ b/Output/Sensitivity_analysis/visualization_sensitivity.xlsx
@@ -402,10 +402,10 @@
         <v>85</v>
       </c>
       <c r="D2">
-        <v>96818</v>
+        <v>63652</v>
       </c>
       <c r="E2">
-        <v>1139</v>
+        <v>749</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -416,20 +416,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B3">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C3">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>94641</v>
+        <v>59941</v>
       </c>
       <c r="E3">
-        <v>1229</v>
+        <v>740</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -440,20 +440,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B4">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>93107</v>
+        <v>55737</v>
       </c>
       <c r="E4">
-        <v>1149</v>
+        <v>733</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -464,20 +464,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B5">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E5">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E6">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="D7">
-        <v>96818</v>
+        <v>60395</v>
       </c>
       <c r="E7">
-        <v>1139</v>
+        <v>711</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -536,20 +536,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B8">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>94641</v>
+        <v>56684</v>
       </c>
       <c r="E8">
-        <v>1229</v>
+        <v>700</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -560,20 +560,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B9">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C9">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>93107</v>
+        <v>52480</v>
       </c>
       <c r="E9">
-        <v>1149</v>
+        <v>691</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -584,20 +584,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B10">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E10">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E11">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -642,10 +642,10 @@
         <v>85</v>
       </c>
       <c r="D12">
-        <v>96818</v>
+        <v>61331</v>
       </c>
       <c r="E12">
-        <v>1139</v>
+        <v>722</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -656,20 +656,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B13">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C13">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>94641</v>
+        <v>57620</v>
       </c>
       <c r="E13">
-        <v>1229</v>
+        <v>711</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -680,20 +680,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B14">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C14">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>93107</v>
+        <v>53416</v>
       </c>
       <c r="E14">
-        <v>1149</v>
+        <v>703</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -704,20 +704,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B15">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C15">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E15">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -738,10 +738,10 @@
         <v>34</v>
       </c>
       <c r="D16">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E16">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         <v>85</v>
       </c>
       <c r="D17">
-        <v>96818</v>
+        <v>63336</v>
       </c>
       <c r="E17">
-        <v>1139</v>
+        <v>745</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -776,20 +776,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B18">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C18">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D18">
-        <v>94641</v>
+        <v>59625</v>
       </c>
       <c r="E18">
-        <v>1229</v>
+        <v>736</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -800,20 +800,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B19">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C19">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D19">
-        <v>93107</v>
+        <v>55421</v>
       </c>
       <c r="E19">
-        <v>1149</v>
+        <v>729</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -824,20 +824,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B20">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C20">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E20">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -858,10 +858,10 @@
         <v>34</v>
       </c>
       <c r="D21">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E21">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -882,10 +882,10 @@
         <v>85</v>
       </c>
       <c r="D22">
-        <v>96818</v>
+        <v>56189</v>
       </c>
       <c r="E22">
-        <v>1139</v>
+        <v>661</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -896,20 +896,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B23">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C23">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23">
-        <v>94641</v>
+        <v>52478</v>
       </c>
       <c r="E23">
-        <v>1229</v>
+        <v>648</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -920,20 +920,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B24">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C24">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D24">
-        <v>93107</v>
+        <v>48274</v>
       </c>
       <c r="E24">
-        <v>1149</v>
+        <v>635</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -944,20 +944,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B25">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C25">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E25">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -978,10 +978,10 @@
         <v>34</v>
       </c>
       <c r="D26">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E26">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1002,10 +1002,10 @@
         <v>85</v>
       </c>
       <c r="D27">
-        <v>96818</v>
+        <v>57867</v>
       </c>
       <c r="E27">
-        <v>1139</v>
+        <v>681</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1016,20 +1016,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B28">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C28">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D28">
-        <v>94641</v>
+        <v>54156</v>
       </c>
       <c r="E28">
-        <v>1229</v>
+        <v>669</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1040,20 +1040,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B29">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C29">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>93107</v>
+        <v>49952</v>
       </c>
       <c r="E29">
-        <v>1149</v>
+        <v>657</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1064,20 +1064,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B30">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C30">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E30">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1098,10 +1098,10 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E31">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1122,10 +1122,10 @@
         <v>85</v>
       </c>
       <c r="D32">
-        <v>96818</v>
+        <v>60131</v>
       </c>
       <c r="E32">
-        <v>1139</v>
+        <v>707</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1136,20 +1136,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B33">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C33">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>94641</v>
+        <v>56420</v>
       </c>
       <c r="E33">
-        <v>1229</v>
+        <v>697</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1160,20 +1160,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B34">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C34">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D34">
-        <v>93107</v>
+        <v>52216</v>
       </c>
       <c r="E34">
-        <v>1149</v>
+        <v>687</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1184,20 +1184,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B35">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C35">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E35">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         <v>34</v>
       </c>
       <c r="D36">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E36">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1242,10 +1242,10 @@
         <v>85</v>
       </c>
       <c r="D37">
-        <v>96818</v>
+        <v>65333</v>
       </c>
       <c r="E37">
-        <v>1139</v>
+        <v>769</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1256,20 +1256,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B38">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C38">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D38">
-        <v>94641</v>
+        <v>61622</v>
       </c>
       <c r="E38">
-        <v>1229</v>
+        <v>761</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1280,20 +1280,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B39">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C39">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D39">
-        <v>93107</v>
+        <v>57418</v>
       </c>
       <c r="E39">
-        <v>1149</v>
+        <v>756</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1304,20 +1304,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B40">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C40">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E40">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1338,10 +1338,10 @@
         <v>34</v>
       </c>
       <c r="D41">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E41">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1362,10 +1362,10 @@
         <v>85</v>
       </c>
       <c r="D42">
-        <v>96818</v>
+        <v>66269</v>
       </c>
       <c r="E42">
-        <v>1139</v>
+        <v>780</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1376,20 +1376,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B43">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C43">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D43">
-        <v>94641</v>
+        <v>62558</v>
       </c>
       <c r="E43">
-        <v>1229</v>
+        <v>772</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1400,20 +1400,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B44">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C44">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D44">
-        <v>93107</v>
+        <v>58354</v>
       </c>
       <c r="E44">
-        <v>1149</v>
+        <v>768</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1424,20 +1424,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B45">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C45">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E45">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1458,10 +1458,10 @@
         <v>34</v>
       </c>
       <c r="D46">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E46">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1482,10 +1482,10 @@
         <v>85</v>
       </c>
       <c r="D47">
-        <v>96818</v>
+        <v>68274</v>
       </c>
       <c r="E47">
-        <v>1139</v>
+        <v>803</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1496,20 +1496,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B48">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C48">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D48">
-        <v>94641</v>
+        <v>64563</v>
       </c>
       <c r="E48">
-        <v>1229</v>
+        <v>797</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1520,20 +1520,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B49">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C49">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D49">
-        <v>93107</v>
+        <v>60359</v>
       </c>
       <c r="E49">
-        <v>1149</v>
+        <v>794</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1544,20 +1544,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B50">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C50">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E50">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1578,10 +1578,10 @@
         <v>34</v>
       </c>
       <c r="D51">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E51">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1602,10 +1602,10 @@
         <v>85</v>
       </c>
       <c r="D52">
-        <v>96818</v>
+        <v>61127</v>
       </c>
       <c r="E52">
-        <v>1139</v>
+        <v>719</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1616,20 +1616,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B53">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C53">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D53">
-        <v>94641</v>
+        <v>57416</v>
       </c>
       <c r="E53">
-        <v>1229</v>
+        <v>709</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1640,20 +1640,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B54">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C54">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D54">
-        <v>93107</v>
+        <v>53212</v>
       </c>
       <c r="E54">
-        <v>1149</v>
+        <v>700</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1664,20 +1664,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B55">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C55">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E55">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1698,10 +1698,10 @@
         <v>34</v>
       </c>
       <c r="D56">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E56">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1722,10 +1722,10 @@
         <v>85</v>
       </c>
       <c r="D57">
-        <v>96818</v>
+        <v>62805</v>
       </c>
       <c r="E57">
-        <v>1139</v>
+        <v>739</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1736,20 +1736,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B58">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C58">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D58">
-        <v>94641</v>
+        <v>59094</v>
       </c>
       <c r="E58">
-        <v>1229</v>
+        <v>730</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1760,20 +1760,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B59">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C59">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D59">
-        <v>93107</v>
+        <v>54890</v>
       </c>
       <c r="E59">
-        <v>1149</v>
+        <v>722</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1784,20 +1784,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B60">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C60">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E60">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1818,10 +1818,10 @@
         <v>34</v>
       </c>
       <c r="D61">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E61">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1842,10 +1842,10 @@
         <v>85</v>
       </c>
       <c r="D62">
-        <v>96818</v>
+        <v>65069</v>
       </c>
       <c r="E62">
-        <v>1139</v>
+        <v>766</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1856,20 +1856,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B63">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C63">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D63">
-        <v>94641</v>
+        <v>61358</v>
       </c>
       <c r="E63">
-        <v>1229</v>
+        <v>758</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1880,20 +1880,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B64">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C64">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D64">
-        <v>93107</v>
+        <v>57154</v>
       </c>
       <c r="E64">
-        <v>1149</v>
+        <v>752</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1904,20 +1904,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B65">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C65">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E65">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1938,10 +1938,10 @@
         <v>34</v>
       </c>
       <c r="D66">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E66">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1962,10 +1962,10 @@
         <v>85</v>
       </c>
       <c r="D67">
-        <v>96818</v>
+        <v>64576</v>
       </c>
       <c r="E67">
-        <v>1139</v>
+        <v>760</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1976,20 +1976,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B68">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C68">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D68">
-        <v>94641</v>
+        <v>60865</v>
       </c>
       <c r="E68">
-        <v>1229</v>
+        <v>751</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2000,20 +2000,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B69">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C69">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D69">
-        <v>93107</v>
+        <v>56661</v>
       </c>
       <c r="E69">
-        <v>1149</v>
+        <v>746</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2024,20 +2024,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B70">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C70">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D70">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E70">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2058,10 +2058,10 @@
         <v>34</v>
       </c>
       <c r="D71">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E71">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2082,10 +2082,10 @@
         <v>85</v>
       </c>
       <c r="D72">
-        <v>96818</v>
+        <v>65512</v>
       </c>
       <c r="E72">
-        <v>1139</v>
+        <v>771</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2096,20 +2096,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B73">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C73">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D73">
-        <v>94641</v>
+        <v>61801</v>
       </c>
       <c r="E73">
-        <v>1229</v>
+        <v>763</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2120,20 +2120,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B74">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C74">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D74">
-        <v>93107</v>
+        <v>57597</v>
       </c>
       <c r="E74">
-        <v>1149</v>
+        <v>758</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2144,20 +2144,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B75">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C75">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D75">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E75">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>34</v>
       </c>
       <c r="D76">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E76">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2202,10 +2202,10 @@
         <v>85</v>
       </c>
       <c r="D77">
-        <v>96818</v>
+        <v>67517</v>
       </c>
       <c r="E77">
-        <v>1139</v>
+        <v>794</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2216,20 +2216,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B78">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C78">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D78">
-        <v>94641</v>
+        <v>63806</v>
       </c>
       <c r="E78">
-        <v>1229</v>
+        <v>788</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2240,20 +2240,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B79">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C79">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D79">
-        <v>93107</v>
+        <v>59602</v>
       </c>
       <c r="E79">
-        <v>1149</v>
+        <v>784</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2264,20 +2264,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B80">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C80">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D80">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E80">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2298,10 +2298,10 @@
         <v>34</v>
       </c>
       <c r="D81">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E81">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2322,10 +2322,10 @@
         <v>85</v>
       </c>
       <c r="D82">
-        <v>96818</v>
+        <v>60370</v>
       </c>
       <c r="E82">
-        <v>1139</v>
+        <v>710</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2336,20 +2336,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B83">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C83">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D83">
-        <v>94641</v>
+        <v>56659</v>
       </c>
       <c r="E83">
-        <v>1229</v>
+        <v>699</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2360,20 +2360,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B84">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C84">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D84">
-        <v>93107</v>
+        <v>52455</v>
       </c>
       <c r="E84">
-        <v>1149</v>
+        <v>690</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2384,20 +2384,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B85">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C85">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D85">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E85">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2418,10 +2418,10 @@
         <v>34</v>
       </c>
       <c r="D86">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E86">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2442,10 +2442,10 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <v>96818</v>
+        <v>62048</v>
       </c>
       <c r="E87">
-        <v>1139</v>
+        <v>730</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2456,20 +2456,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B88">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C88">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D88">
-        <v>94641</v>
+        <v>58337</v>
       </c>
       <c r="E88">
-        <v>1229</v>
+        <v>720</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2480,20 +2480,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B89">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C89">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D89">
-        <v>93107</v>
+        <v>54133</v>
       </c>
       <c r="E89">
-        <v>1149</v>
+        <v>712</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2504,20 +2504,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B90">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C90">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D90">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E90">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2538,10 +2538,10 @@
         <v>34</v>
       </c>
       <c r="D91">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E91">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2562,10 +2562,10 @@
         <v>85</v>
       </c>
       <c r="D92">
-        <v>96818</v>
+        <v>64312</v>
       </c>
       <c r="E92">
-        <v>1139</v>
+        <v>757</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2576,20 +2576,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Any symptom</t>
+          <t>Abnormality ≥ 0.30</t>
         </is>
       </c>
       <c r="B93">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="C93">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D93">
-        <v>94641</v>
+        <v>60601</v>
       </c>
       <c r="E93">
-        <v>1229</v>
+        <v>748</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2600,20 +2600,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.30</t>
+          <t>Abnormality ≥ 0.50</t>
         </is>
       </c>
       <c r="B94">
-        <v>738</v>
+        <v>424</v>
       </c>
       <c r="C94">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D94">
-        <v>93107</v>
+        <v>56397</v>
       </c>
       <c r="E94">
-        <v>1149</v>
+        <v>742</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2624,20 +2624,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Abnormality ≥ 0.50</t>
+          <t>Any symptom</t>
         </is>
       </c>
       <c r="B95">
-        <v>424</v>
+        <v>906</v>
       </c>
       <c r="C95">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D95">
-        <v>88903</v>
+        <v>47118</v>
       </c>
       <c r="E95">
-        <v>1170</v>
+        <v>612</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2658,10 +2658,10 @@
         <v>34</v>
       </c>
       <c r="D96">
-        <v>87471</v>
+        <v>39948</v>
       </c>
       <c r="E96">
-        <v>2573</v>
+        <v>1175</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
